--- a/codegen/__out__/pc/public/import_template/hrm/payslip.xlsx
+++ b/codegen/__out__/pc/public/import_template/hrm/payslip.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPayslip;%&gt;&lt;%=comment.pay_date%&gt;</t>
+    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPayslip;%&gt;&lt;%=comment.pay_month_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.net_pay%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.is_send_lbl%&gt;&lt;%selectList.is_send = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_send.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.is_confirm_lbl%&gt;&lt;%selectList.is_confirm = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_confirm.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -431,12 +425,6 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codegen/__out__/pc/public/import_template/hrm/payslip.xlsx
+++ b/codegen/__out__/pc/public/import_template/hrm/payslip.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPayslip;%&gt;&lt;%=comment.pay_month_lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.job_num%&gt;</t>

--- a/codegen/__out__/pc/public/import_template/hrm/payslip.xlsx
+++ b/codegen/__out__/pc/public/import_template/hrm/payslip.xlsx
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.net_pay%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.is_send_lbl%&gt;&lt;%selectList.is_send = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_send.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.is_confirm_lbl%&gt;&lt;%selectList.is_confirm = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_confirm.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -425,6 +431,12 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
